--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58ECF1C-8738-4EA3-918C-9B3FAD2E3797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FEDBAF-E2E4-4F79-AAB0-EF58552C90E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1425,11 +1425,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1437,26 +1437,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1858,13 +1858,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
@@ -1879,26 +1879,26 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="5" t="s">
         <v>101</v>
       </c>
@@ -1913,11 +1913,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
@@ -2019,13 +2019,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
@@ -2040,11 +2040,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="46"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
@@ -2063,13 +2063,13 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="46" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2086,11 +2086,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="48" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2115,12 +2115,12 @@
       <c r="F18" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="40" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2163,20 +2163,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2186,6 +2172,20 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FEDBAF-E2E4-4F79-AAB0-EF58552C90E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE10095-7102-49E6-9A02-6DA7E2868F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,26 +1437,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1858,13 +1858,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
@@ -1879,26 +1879,26 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="49"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="5" t="s">
         <v>101</v>
       </c>
@@ -1913,11 +1913,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
@@ -2019,13 +2019,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
@@ -2040,11 +2040,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="49"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
@@ -2063,13 +2063,13 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="43" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2086,11 +2086,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2163,6 +2163,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2172,20 +2186,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE10095-7102-49E6-9A02-6DA7E2868F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D81A6-B9E6-4AC0-AF2D-CF71B5EA29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Req. Table" sheetId="7" r:id="rId1"/>
     <sheet name="Verification Ristrictions " sheetId="8" r:id="rId2"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Software Interfaces" sheetId="9" r:id="rId3"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="198">
   <si>
     <t>Description</t>
   </si>
@@ -602,19 +603,6 @@
   </si>
   <si>
     <t>● Account No
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Customer Name
-● Gender
-● Date of Birth
-● Address
-● City
-● State
-● PIN
-● Telephone Number
-● Email Id
 ● Submit
 ● Reset</t>
   </si>
@@ -860,17 +848,6 @@
   </si>
   <si>
     <t>Manager
-F5 If these source and destination account numbers are invalid, system displays an error
-F6 If these source and destination account numbers are same, system displays an error
-F7 If the source account does not have the necessary balance, system displays an error
-F8 If the source account does not associated with manager, System displays an error
-Customer
-F9 If the destination account number is not valid, system displays an errorF10 If these source and destination account numbers are same, system displays an error
-F11 If the source account does not have the necessary balance, system displays an error
-F12 If the source account is not associate with customer itself, System displays an error.</t>
-  </si>
-  <si>
-    <t>Manager
 F13 If source account number is invalid, system displays an error
 F14 If source account does not have the necessary balance, system displays an error
 F15 If source account does not associate with manager, System displays an error.
@@ -901,11 +878,6 @@
 F27 If account does not associate with manager logged in, System displays an error.</t>
   </si>
   <si>
-    <t>Manager
-F28 If Account Number is invalid, system displays an error.
-F29 If Account number does not associate with manager, System displays an error.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">● Account Number
 ● Submit
@@ -953,22 +925,6 @@
 ● Submit
 ● Reset</t>
     </r>
-  </si>
-  <si>
-    <t>Manager
-F30 If Customer ID is invalid, system displays an error.
-F31 If initial deposit is less than 500, System displays an error.
-F32 If Customer Id does not associate with manager, System displays an error.</t>
-  </si>
-  <si>
-    <t>Manager
-F33 If same Email Id exist in the system, system shows an error.</t>
-  </si>
-  <si>
-    <t>Manager
-F34 If same Email Id exist in the system, system shows an error.
-F35 If Customer Id is invalid, System displays an error.
-F36 If Customer Id does not associate with Manager, System displays an error.</t>
   </si>
   <si>
     <t>Manager
@@ -1004,12 +960,429 @@
 F4 Account number entered should exist in database
 F49 If account no is invalid, System displays an error</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager
+F5 If these source and destination account numbers are invalid, system displays an error
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“Account ### does not exist!!!”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) addded in v3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+F6 If these source and destination account numbers are same, system displays an error
+F7 If the source account does not have the necessary balance, system displays an error
+F8 If the source account does not associated with manager, System displays an error
+Customer
+F9 If the destination account number is not valid, system displays an errorF10 If these source and destination account numbers are same, system displays an error </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“Account ### does not exist!!!”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) addded in v3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+F11 If the source account does not have the necessary balance, system displays an error
+F12 If the source account is not associate with customer itself, System displays an error.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager
+F28 If Account Number is invalid, system displays an error.
+F29 If Account number does not associate with manager, System displays an error.
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>On success , Account details must be shown.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)added in v3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager
+F30 If Customer ID is invalid, system displays an error.
+F31 If initial deposit is less than 500, System displays an error.
+F32 If Customer Id does not associate with manager, System displays an error.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>On success , Account details must be shown.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)added in v3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager
+F33 If same Email Id exist in the system, system shows an error.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>User registration details must be shown.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)added in v3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager
+F34 If same Email Id exist in the system, system shows an error.
+F35 If Customer Id is invalid, System displays an error.
+F36 If Customer Id does not associate with Manager, System displays an error.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>On success , user registration details must be shown.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)added in v3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● Customer Name
+● Gender
+● Date of Birth
+● Address
+● City
+● State
+● PIN
+● Telephone Number
+● Email Id
+● Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(v3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+● Submit
+● Reset</t>
+    </r>
+  </si>
+  <si>
+    <t>Get last 5 transaction details from server</t>
+  </si>
+  <si>
+    <t>Output Format</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>API call category</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>API Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Parameter </t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Get Balance from User Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Code # </t>
+  </si>
+  <si>
+    <t>Error Code Message</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>NoData</t>
+  </si>
+  <si>
+    <t>Connection Issue</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V3/sinkministatement.php?CUSTOMER_ID=cust123&amp;PASSWORD=cust123&amp;Account_No=123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V3/sinkbalanceenquiry.php?CUSTOMER_ID=cust123&amp;PAS
+SWORD=cust123&amp;Account_No=123</t>
+  </si>
+  <si>
+    <t>CustomerID - User’s customer id
+Password - Users’ password
+AccountNumber - Account Number for which statements are required</t>
+  </si>
+  <si>
+    <t>CustomerID - User’s customer id
+Password - Users’ password
+AccountNumber 
+- If user enters Account_No then display balance for account associate with Account_No
+- If user not enters Account_No then
+display balance for all account
+associated with it.</t>
+  </si>
+  <si>
+    <t>{"
+result":
+{
+"Balance":[
+{"
+ACCOUNT_NO":123,
+"ACCOUNT_TYPE":"Saving",
+"BALANCE":"10000"
+},
+{"
+ACCOUNT_NO":256,
+"ACCOUNT_TYPE":"Current",
+"BALANCE":"50000"
+},
+{"
+ACCOUNT_NO":298,
+"ACCOUNT_TYPE":"saving",
+"BALANCE":"20"
+}]
+},
+"message":
+{"
+ErrorCode":0,
+"ErrorMsg":"error message"
+}
+}</t>
+  </si>
+  <si>
+    <t>{"
+result":
+{
+"Statements":[
+{"
+Transaction ID":123,
+"Amount":"10000",
+"Transaction Type":"W",
+"ACCOUNT_NO":"123",
+"Date of Transaction":"2013-10-01",
+"Description":"Self"
+},
+{"
+Transaction ID":142,
+"Amount":"10000",
+"Transaction Type":"d",
+"ACCOUNT_NO":"123",
+"Date of Transaction":"2013-10-09",
+"Description":"Self"
+},
+{"
+Transaction ID":1111,
+"Amount":"700",
+"Transaction Type":"d",
+"ACCOUNT_NO":"123",
+"Date of Transaction":"2013-15-09",
+"Description":"Self"
+},
+{"Transaction ID":148,
+"Amount":"7000",
+"Transaction Type":"d",
+"ACCOUNT_NO":"123",
+"Date of Transaction":"2013-17-09",
+"Description":"Self"
+},
+{"
+Transaction ID":158,
+"Amount":"5500",
+"Transaction Type":"d",
+"ACCOUNT_NO":"123",
+"Date of Transaction":"2013-18-09",
+"Description":"Self"
+}]
+},
+"message":
+{"
+ErrorCode":0,
+"ErrorMsg":"error message"
+}
+}</t>
+  </si>
+  <si>
+    <t>Login Credentials Incorrect</t>
+  </si>
+  <si>
+    <t>Error Code Table</t>
+  </si>
+  <si>
+    <t>A customized statement allows you to filter and
+display transactions in an account based on date,
+transaction value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1062,6 +1435,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="TrebuchetMS-Italic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial-BoldMT"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1303,11 +1712,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1437,30 +1847,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1775,9 +2213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CD782-A754-4D5D-8CA8-D381E0EB2815}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6:C7"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="48" customHeight="1"/>
@@ -1809,10 +2247,10 @@
         <v>121</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="21" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
@@ -1827,13 +2265,13 @@
         <v>108</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="21" customFormat="1" ht="354" customHeight="1" thickBot="1">
@@ -1848,23 +2286,23 @@
         <v>120</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
@@ -1872,52 +2310,54 @@
         <v>124</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="46" t="s">
+        <v>197</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>155</v>
-      </c>
       <c r="G6" s="41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
@@ -1927,16 +2367,16 @@
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
       <c r="A8" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
@@ -1953,13 +2393,13 @@
         <v>112</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="106.5" customHeight="1" thickBot="1">
@@ -1974,18 +2414,18 @@
         <v>114</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="183" customHeight="1" thickBot="1">
       <c r="A11" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>90</v>
@@ -1995,37 +2435,37 @@
         <v>109</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="369.75" customHeight="1" thickBot="1">
       <c r="A12" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
@@ -2033,18 +2473,18 @@
         <v>122</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
@@ -2054,22 +2494,22 @@
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A15" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="46" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2079,18 +2519,18 @@
         <v>124</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
@@ -2099,7 +2539,7 @@
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2113,14 +2553,14 @@
         <v>123</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2131,7 +2571,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" ht="102.75" customHeight="1" thickBot="1">
@@ -2146,13 +2586,13 @@
         <v>116</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1">
@@ -2163,20 +2603,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2186,6 +2612,20 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2209,32 +2649,32 @@
   <sheetData>
     <row r="1" spans="1:4" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="36" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="36" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2243,6 +2683,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE990DA-D81B-4905-857E-47E054571B9A}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="50" customWidth="1"/>
+    <col min="2" max="3" width="42" style="50" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="50" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B1" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B2" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A3" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A4" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="128.25">
+      <c r="A6" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" ht="409.5">
+      <c r="A7" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="52"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="B8" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D10" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D11" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D12" s="58">
+        <v>0</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D13" s="58">
+        <v>1</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D14" s="58">
+        <v>2</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D15" s="58">
+        <v>3</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1075B957-BDA3-42DF-872C-224E1F5F5ABE}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{1FA91631-5362-4481-8045-F5420F42B529}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2426,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2520,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2760,7 +3358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D81A6-B9E6-4AC0-AF2D-CF71B5EA29DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CD506B-829F-46AF-A669-44A8EEEF32C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1717,7 +1717,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1841,59 +1841,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2213,9 +2210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CD782-A754-4D5D-8CA8-D381E0EB2815}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="48" customHeight="1"/>
@@ -2296,74 +2293,74 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="55" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="49"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="53" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="51" t="s">
         <v>197</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="45"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
       <c r="A8" s="37" t="s">
@@ -2459,38 +2456,38 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="55" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="49" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="49"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A15" s="30" t="s">
@@ -2503,43 +2500,43 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="55" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="51" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="49" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2549,10 +2546,10 @@
       <c r="D18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="49" t="s">
         <v>141</v>
       </c>
       <c r="G18" s="40" t="s">
@@ -2560,7 +2557,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2568,8 +2565,8 @@
       <c r="D19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="39" t="s">
         <v>163</v>
       </c>
@@ -2603,6 +2600,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2612,20 +2623,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2692,142 +2689,141 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="50" customWidth="1"/>
-    <col min="2" max="3" width="42" style="50" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="50" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="18.85546875" style="31" customWidth="1"/>
+    <col min="2" max="3" width="42" style="31" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="41" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="42" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="41" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="43" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="128.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="409.5">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="14.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="14.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D12" s="58">
+      <c r="D12" s="48">
         <v>0</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="48" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D13" s="58">
+      <c r="D13" s="48">
         <v>1</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="48" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D14" s="58">
+      <c r="D14" s="48">
         <v>2</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="48" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D15" s="58">
+      <c r="D15" s="48">
         <v>3</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="48" t="s">
         <v>195</v>
       </c>
     </row>

--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CD506B-829F-46AF-A669-44A8EEEF32C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67773CAD-A73C-429A-890B-C0D7326A233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Req. Table" sheetId="7" r:id="rId1"/>
@@ -583,9 +583,6 @@
       </rPr>
       <t>● A manager can edit details like address, email , telephone of a customer.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields per </t>
   </si>
   <si>
     <t>● Payers account no
@@ -1376,6 +1373,9 @@
     <t>A customized statement allows you to filter and
 display transactions in an account based on date,
 transaction value</t>
+  </si>
+  <si>
+    <t>Fields per Module</t>
   </si>
 </sst>
 </file>
@@ -1871,26 +1871,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2210,9 +2210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CD782-A754-4D5D-8CA8-D381E0EB2815}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:A7"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="48" customHeight="1"/>
@@ -2241,13 +2241,13 @@
         <v>118</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="21" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
@@ -2262,13 +2262,13 @@
         <v>108</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="21" customFormat="1" ht="354" customHeight="1" thickBot="1">
@@ -2283,78 +2283,78 @@
         <v>120</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>197</v>
+      <c r="C6" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>154</v>
-      </c>
       <c r="G6" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
@@ -2364,16 +2364,16 @@
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
       <c r="A8" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
@@ -2390,13 +2390,13 @@
         <v>112</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="106.5" customHeight="1" thickBot="1">
@@ -2411,18 +2411,18 @@
         <v>114</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="183" customHeight="1" thickBot="1">
       <c r="A11" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>90</v>
@@ -2432,56 +2432,56 @@
         <v>109</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="369.75" customHeight="1" thickBot="1">
       <c r="A12" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
@@ -2491,43 +2491,43 @@
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A15" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="54" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2547,17 +2547,17 @@
         <v>104</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" ht="102.75" customHeight="1" thickBot="1">
@@ -2583,13 +2583,13 @@
         <v>116</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1">
@@ -2600,20 +2600,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2623,6 +2609,20 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2646,32 +2646,32 @@
   <sheetData>
     <row r="1" spans="1:4" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="36" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>148</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="36" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2706,72 +2706,72 @@
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
       <c r="B2" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>176</v>
-      </c>
       <c r="C3" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1">
       <c r="A4" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>178</v>
-      </c>
       <c r="C4" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25">
       <c r="A5" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="128.25">
       <c r="A6" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>192</v>
       </c>
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="409.5">
       <c r="A7" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="B8" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -2784,15 +2784,15 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="D10" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="D11" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>183</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
@@ -2824,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67773CAD-A73C-429A-890B-C0D7326A233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611DB5C2-EA2C-478A-9A62-C650D2B8ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Req. Table" sheetId="7" r:id="rId1"/>
@@ -1871,26 +1871,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2210,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CD782-A754-4D5D-8CA8-D381E0EB2815}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -2293,13 +2293,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
@@ -2314,26 +2314,26 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2350,11 +2350,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
@@ -2456,13 +2456,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
@@ -2477,11 +2477,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
@@ -2500,13 +2500,13 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2523,11 +2523,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2600,6 +2600,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2609,20 +2623,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2683,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE990DA-D81B-4905-857E-47E054571B9A}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611DB5C2-EA2C-478A-9A62-C650D2B8ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651ABBD-3D55-4F29-A58E-03D65588A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Req. Table" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="202">
   <si>
     <t>Description</t>
   </si>
@@ -1260,14 +1260,7 @@
     <t>Connection Issue</t>
   </si>
   <si>
-    <t>http://demo.guru99.com/V3/sinkministatement.php?CUSTOMER_ID=cust123&amp;PASSWORD=cust123&amp;Account_No=123</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V3/sinkbalanceenquiry.php?CUSTOMER_ID=cust123&amp;PAS
-SWORD=cust123&amp;Account_No=123</t>
   </si>
   <si>
     <t>CustomerID - User’s customer id
@@ -1377,12 +1370,30 @@
   <si>
     <t>Fields per Module</t>
   </si>
+  <si>
+    <t>Account ID</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V3/sinkministatement.php?CUSTOMER_ID=60874&amp;PASSWORD=1+2&amp;Account_No=131869</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V3/sinkbalanceenquiry.php?CUSTOMER_ID=60874&amp;PASSWORD=1+2&amp;Account_No=131869</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1471,8 +1482,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1496,8 +1513,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1711,13 +1734,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1871,26 +1909,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1909,6 +1953,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1885392</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA6052E-7D5B-FAFB-EB9B-70882B0AEA80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="8496300"/>
+          <a:ext cx="4466667" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2644588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518881</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E254D2A3-99CA-7B25-C326-6D48A3A929AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6701117" y="11060206"/>
+          <a:ext cx="4082352" cy="3470014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2241,7 +2378,7 @@
         <v>118</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>156</v>
@@ -2293,13 +2430,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
@@ -2314,27 +2451,27 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>196</v>
+      <c r="C6" s="54" t="s">
+        <v>194</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
@@ -2350,11 +2487,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
@@ -2456,13 +2593,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
@@ -2477,11 +2614,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
@@ -2500,13 +2637,13 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="54" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2523,11 +2660,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
@@ -2536,7 +2673,7 @@
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2557,7 +2694,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2600,20 +2737,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2623,6 +2746,20 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2681,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE990DA-D81B-4905-857E-47E054571B9A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2739,10 +2876,10 @@
         <v>178</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="128.25">
@@ -2750,28 +2887,28 @@
         <v>179</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:6" ht="384" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="B8" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -2784,7 +2921,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="D10" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -2819,12 +2956,36 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="33" customHeight="1">
       <c r="D15" s="48">
         <v>3</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="18">
+      <c r="D18" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="58">
+        <v>131869</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="18">
+      <c r="D19" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="58">
+        <v>60874</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="18">
+      <c r="D20" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2833,6 +2994,7 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{1FA91631-5362-4481-8045-F5420F42B529}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Test RequiermentsTable.xlsx
+++ b/Test RequiermentsTable.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651ABBD-3D55-4F29-A58E-03D65588A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A876F36-8AA7-4F52-951E-BAF6A347D84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Req. Table" sheetId="7" r:id="rId1"/>
-    <sheet name="Verification Ristrictions " sheetId="8" r:id="rId2"/>
-    <sheet name="Software Interfaces" sheetId="9" r:id="rId3"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Software Interfaces" sheetId="9" r:id="rId2"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="195">
   <si>
     <t>Description</t>
   </si>
@@ -757,27 +756,6 @@
 T108 Characters are not allowed
 T109 Special characters are not allowed
 T110 Description cannot be blank</t>
-  </si>
-  <si>
-    <t>Field Type</t>
-  </si>
-  <si>
-    <t>Numerical</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Ristrictions</t>
-  </si>
-  <si>
-    <t>Not Empty</t>
-  </si>
-  <si>
-    <t>No Characters</t>
-  </si>
-  <si>
-    <t>No special characters</t>
   </si>
   <si>
     <t>T82 Payers Account Number must not be blank
@@ -1520,7 +1498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1677,59 +1655,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1755,7 +1680,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1852,21 +1777,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1903,38 +1813,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2378,17 +2288,17 @@
         <v>118</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="21" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="32" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -2405,11 +2315,11 @@
         <v>130</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="21" customFormat="1" ht="354" customHeight="1" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2420,88 +2330,88 @@
         <v>120</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>131</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>166</v>
+      <c r="G4" s="46" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>194</v>
+      <c r="C6" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>164</v>
+      <c r="E6" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A8" s="37" t="s">
-        <v>151</v>
+      <c r="A8" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
@@ -2510,11 +2420,11 @@
         <v>133</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -2533,11 +2443,11 @@
         <v>134</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="106.5" customHeight="1" thickBot="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="32" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2554,12 +2464,12 @@
         <v>135</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="183" customHeight="1" thickBot="1">
-      <c r="A11" s="37" t="s">
-        <v>150</v>
+      <c r="A11" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>90</v>
@@ -2569,62 +2479,62 @@
         <v>109</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>136</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="369.75" customHeight="1" thickBot="1">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>137</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>167</v>
+      <c r="F13" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A15" s="30" t="s">
@@ -2637,43 +2547,43 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="52" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="48" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>165</v>
+      <c r="G16" s="46" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="52" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2683,18 +2593,18 @@
       <c r="D18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="40" t="s">
-        <v>163</v>
+      <c r="G18" s="35" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
@@ -2702,14 +2612,14 @@
       <c r="D19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="39" t="s">
-        <v>162</v>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="34" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" ht="102.75" customHeight="1" thickBot="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -2726,7 +2636,7 @@
         <v>141</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1">
@@ -2737,6 +2647,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G4:G5"/>
@@ -2746,77 +2670,12 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58265D46-97F3-47F8-8B95-10DCBB576402}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="32"/>
-    <col min="2" max="3" width="14.140625" style="31"/>
-    <col min="4" max="4" width="25.85546875" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="14.140625" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="36" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="36" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE990DA-D81B-4905-857E-47E054571B9A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -2834,158 +2693,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B2" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A4" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="128.25">
+      <c r="A6" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A4" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25">
-      <c r="A5" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="128.25">
-      <c r="A6" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:6" ht="384" customHeight="1">
       <c r="A7" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="B8" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D10" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D11" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D13" s="43">
+        <v>1</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D14" s="43">
+        <v>2</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="D15" s="43">
+        <v>3</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="18">
+      <c r="D18" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="44">
+        <v>131869</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="18">
+      <c r="D19" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="44">
+        <v>60874</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="18">
+      <c r="D20" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="42"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="B8" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D10" s="47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D11" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D12" s="48">
-        <v>0</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D13" s="48">
-        <v>1</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D14" s="48">
-        <v>2</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="D15" s="48">
-        <v>3</v>
-      </c>
-      <c r="E15" s="48" t="s">
+      <c r="E20" s="45" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="18">
-      <c r="D18" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="58">
-        <v>131869</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="18">
-      <c r="D19" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="58">
-        <v>60874</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="18">
-      <c r="D20" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +2857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3182,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3276,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3516,7 +3375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
